--- a/Validation/Diff_feuille_res.xlsx
+++ b/Validation/Diff_feuille_res.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15780" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="READ_ME" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="verif_feuille_res_1" localSheetId="0">Sheet1!$A$1:$AA$15</definedName>
+    <definedName name="verif_feuille_res_1" localSheetId="1">Sheet1!$A$1:$AA$15</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="verif_feuille_res" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/gysco/EPITECH/IRSN/SSWD/verif_feuille_res.csv" thousands=" " comma="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="/Users/gysco/EPITECH/IRSN/SSWD/verif_feuille_res.csv" thousands=" " comma="1">
       <textFields count="28">
         <textField type="skip"/>
         <textField/>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
   <si>
     <t>Used data sorted out by taxonomy group</t>
   </si>
@@ -86,34 +87,136 @@
     <t>s3</t>
   </si>
   <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>GWM</t>
+  </si>
+  <si>
+    <t>GWSD</t>
+  </si>
+  <si>
+    <t>Best-Estimate</t>
+  </si>
+  <si>
+    <t>Geo. Stand. Deviation</t>
+  </si>
+  <si>
+    <t>Centile 2.5%</t>
+  </si>
+  <si>
+    <t>Centile 97.5%</t>
+  </si>
+  <si>
+    <t>Distribution: Weighted Normal + Confidence limits by weighted bootstrap and Bias Correction</t>
+  </si>
+  <si>
+    <t>Centile 5%</t>
+  </si>
+  <si>
+    <t>Centile 95%</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>taxon</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Weighted Emp. Cumul. Prob.</t>
+  </si>
+  <si>
+    <t>ORIGINAL</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>TestPond.xls</t>
+  </si>
+  <si>
+    <t>Why</t>
+  </si>
+  <si>
+    <t>Geo Std</t>
+  </si>
+  <si>
+    <t>Verification de la feuille res</t>
+  </si>
+  <si>
+    <t>Application des calculs au quant sur la collone MEAN de qnorm</t>
+  </si>
+  <si>
+    <t>Application des calculs au quant sur la collone STDEV de qnorm</t>
+  </si>
+  <si>
+    <t>Formula in Diff_Geo_STD.xlsx</t>
+  </si>
+  <si>
+    <t>SpeciesComp</t>
+  </si>
+  <si>
+    <t>PhylumSup</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
     <t>T2</t>
   </si>
   <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>s4</t>
-  </si>
-  <si>
     <t>Distribution: Weighted Triangular + Confidence limits by weighted bootstrap and Bias Correction</t>
   </si>
   <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>GWM</t>
-  </si>
-  <si>
-    <t>GWSD</t>
-  </si>
-  <si>
-    <t>Best-Estimate</t>
-  </si>
-  <si>
-    <t>Geo. Stand. Deviation</t>
-  </si>
-  <si>
-    <t>Centile 2.5%</t>
+    <t>2.5%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>97.5%</t>
   </si>
   <si>
     <t>Centile 5.0%</t>
@@ -122,49 +225,7 @@
     <t>Centile 95.0%</t>
   </si>
   <si>
-    <t>Centile 97.5%</t>
-  </si>
-  <si>
     <t>PYTHON</t>
-  </si>
-  <si>
-    <t>Distribution: Weighted Normal + Confidence limits by weighted bootstrap and Bias Correction</t>
-  </si>
-  <si>
-    <t>Centile 5%</t>
-  </si>
-  <si>
-    <t>Centile 95%</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>taxon</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Weighted Emp. Cumul. Prob.</t>
-  </si>
-  <si>
-    <t>ORIGINAL</t>
-  </si>
-  <si>
-    <t>SpeciesComp</t>
-  </si>
-  <si>
-    <t>PhylumSup</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -174,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +248,13 @@
       <sz val="10"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -326,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -354,13 +422,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,11 +705,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:AA1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,978 +789,820 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20" t="s">
+      <c r="R1" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20" t="s">
+      <c r="X1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="19" t="s">
-        <v>26</v>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19" t="s">
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="19">
-        <v>5.9999999999999902</v>
-      </c>
-      <c r="U3" s="19">
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>5.9999999999999982</v>
+      </c>
+      <c r="U3">
         <v>0.125</v>
       </c>
-      <c r="V3" s="19">
+      <c r="V3">
         <v>0.32500000000000001</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="X3" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="Y3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3">
+        <v>0.1</v>
+      </c>
+      <c r="AA3">
+        <v>0.25</v>
+      </c>
+      <c r="AB3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>0.125</v>
+      </c>
+      <c r="V4">
+        <v>0.45</v>
+      </c>
+      <c r="X4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>5.9999999999999982</v>
+      </c>
+      <c r="AA4">
+        <v>0.125</v>
+      </c>
+      <c r="AB4">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="R5" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>100</v>
+      </c>
+      <c r="U5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="V5">
+        <v>0.78333333333333344</v>
+      </c>
+      <c r="X5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5">
+        <v>0.125</v>
+      </c>
+      <c r="AB5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>149.99999999999989</v>
+      </c>
+      <c r="U6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="V6">
+        <v>0.86666666666666681</v>
+      </c>
+      <c r="X6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6">
+        <v>44.999999999999979</v>
+      </c>
+      <c r="AA6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AB6">
+        <v>0.51249999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>199.9999999999998</v>
+      </c>
+      <c r="U7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="V7">
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="X7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7">
+        <v>49.999999999999957</v>
+      </c>
+      <c r="AA7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AB7">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8">
         <v>0.1</v>
       </c>
-      <c r="Z3" s="19">
+      <c r="U8">
         <v>0.25</v>
       </c>
-      <c r="AA3" s="19">
+      <c r="V8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="19">
+      <c r="X8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z8">
+        <v>59.999999999999972</v>
+      </c>
+      <c r="AA8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AB8">
+        <v>0.63749999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9">
+        <v>44.999999999999979</v>
+      </c>
+      <c r="U9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="V9">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="X9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9">
+        <v>74.999999999999929</v>
+      </c>
+      <c r="AA9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AB9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="19">
-        <v>0.125</v>
-      </c>
-      <c r="V4" s="19">
-        <v>0.45</v>
-      </c>
-      <c r="W4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="19">
-        <v>5.9999999999999902</v>
-      </c>
-      <c r="Z4" s="19">
-        <v>0.125</v>
-      </c>
-      <c r="AA4" s="19">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19" t="s">
+      <c r="B10">
+        <v>2.6991645281838068E-2</v>
+      </c>
+      <c r="C10">
+        <v>6.8574007603779075E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.20091764906948401</v>
+      </c>
+      <c r="E10">
+        <v>0.41495914445090781</v>
+      </c>
+      <c r="F10">
+        <v>0.73849442641333185</v>
+      </c>
+      <c r="G10">
+        <v>1.88794484104356</v>
+      </c>
+      <c r="H10">
+        <v>8.9097639931214765</v>
+      </c>
+      <c r="I10">
+        <v>42.047782693293357</v>
+      </c>
+      <c r="J10">
+        <v>107.4942363460617</v>
+      </c>
+      <c r="K10">
+        <v>191.30532601750031</v>
+      </c>
+      <c r="L10">
+        <v>395.10662592747332</v>
+      </c>
+      <c r="M10">
+        <v>1157.638253721502</v>
+      </c>
+      <c r="N10">
+        <v>2941.0542997369298</v>
+      </c>
+      <c r="O10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>8.9097639931214765</v>
+      </c>
+      <c r="Q10">
+        <v>19.27713150860966</v>
+      </c>
+      <c r="R10" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="19">
+      <c r="S10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10">
+        <v>49.999999999999957</v>
+      </c>
+      <c r="U10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="V10">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="X10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10">
         <v>100</v>
       </c>
-      <c r="U5" s="19">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="V5" s="19">
-        <v>0.78333333333333299</v>
-      </c>
-      <c r="W5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="19">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="19">
-        <v>0.125</v>
-      </c>
-      <c r="AA5" s="19">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19" t="s">
+      <c r="AA10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AB10">
+        <v>0.78333333333333344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>6.7779344142158164</v>
+      </c>
+      <c r="C11">
+        <v>5.748128959816877</v>
+      </c>
+      <c r="D11">
+        <v>4.7737406636160404</v>
+      </c>
+      <c r="E11">
+        <v>4.2258935562967448</v>
+      </c>
+      <c r="F11">
+        <v>3.8454878949926732</v>
+      </c>
+      <c r="G11">
+        <v>3.3188223191548589</v>
+      </c>
+      <c r="H11">
+        <v>2.6687194273954842</v>
+      </c>
+      <c r="I11">
+        <v>2.2645418245722881</v>
+      </c>
+      <c r="J11">
+        <v>2.137152073844145</v>
+      </c>
+      <c r="K11">
+        <v>2.1041379339899322</v>
+      </c>
+      <c r="L11">
+        <v>2.1124207828621029</v>
+      </c>
+      <c r="M11">
+        <v>2.2259867407476119</v>
+      </c>
+      <c r="N11">
+        <v>2.4194316634949611</v>
+      </c>
+      <c r="O11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <v>14.97570467144072</v>
+      </c>
+      <c r="Q11">
+        <v>11.52912966182271</v>
+      </c>
+      <c r="R11" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" s="19">
-        <v>149.99999999999901</v>
-      </c>
-      <c r="U6" s="19">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="V6" s="19">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="X6" s="19" t="s">
+      <c r="S11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11">
+        <v>59.999999999999972</v>
+      </c>
+      <c r="U11">
+        <v>6.25E-2</v>
+      </c>
+      <c r="V11">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="X11" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="19">
-        <v>44.999999999999901</v>
-      </c>
-      <c r="Z6" s="19">
+      <c r="Y11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>149.99999999999989</v>
+      </c>
+      <c r="AA11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AB11">
+        <v>0.86666666666666681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1.7215389882526621E-3</v>
+      </c>
+      <c r="C12">
+        <v>4.902346125614126E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.8410625273670121E-2</v>
+      </c>
+      <c r="E12">
+        <v>4.426990706696339E-2</v>
+      </c>
+      <c r="F12">
+        <v>8.5135960075177819E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.22483414479552699</v>
+      </c>
+      <c r="H12">
+        <v>1.076500539463856</v>
+      </c>
+      <c r="I12">
+        <v>5.1711611499517014</v>
+      </c>
+      <c r="J12">
+        <v>13.60801913547296</v>
+      </c>
+      <c r="K12">
+        <v>25.440352710799409</v>
+      </c>
+      <c r="L12">
+        <v>55.130423573610877</v>
+      </c>
+      <c r="M12">
+        <v>168.7248060713566</v>
+      </c>
+      <c r="N12">
+        <v>422.09613645575467</v>
+      </c>
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <v>25.786470569052941</v>
+      </c>
+      <c r="Q12">
+        <v>308.5534046344826</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12">
+        <v>74.999999999999929</v>
+      </c>
+      <c r="U12">
         <v>6.25E-2</v>
       </c>
-      <c r="AA6" s="19">
-        <v>0.51249999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="19">
-        <v>199.99999999999901</v>
-      </c>
-      <c r="U7" s="19">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="V7" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="W7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="X7" s="19" t="s">
+      <c r="V12">
+        <v>0.7</v>
+      </c>
+      <c r="X12" t="s">
         <v>5</v>
       </c>
-      <c r="Y7" s="19">
-        <v>49.999999999999901</v>
-      </c>
-      <c r="Z7" s="19">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AA7" s="19">
-        <v>0.57499999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="U8" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="V8" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="W8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="X8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="19">
-        <v>59.999999999999901</v>
-      </c>
-      <c r="Z8" s="19">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AA8" s="19">
-        <v>0.63749999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="21">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C9" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0.7</v>
-      </c>
-      <c r="J9" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="K9" s="22">
-        <v>0.85</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0.9</v>
-      </c>
-      <c r="M9" s="22">
-        <v>0.95</v>
-      </c>
-      <c r="N9" s="21">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="19">
-        <v>44.999999999999901</v>
-      </c>
-      <c r="U9" s="19">
-        <v>6.25E-2</v>
-      </c>
-      <c r="V9" s="19">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="W9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="19">
-        <v>74.999999999999901</v>
-      </c>
-      <c r="Z9" s="19">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AA9" s="19">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="19">
-        <v>2.6991645281800002E-2</v>
-      </c>
-      <c r="C10" s="19">
-        <v>6.8574007603800002E-2</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0.200917649069</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0.41495914445100002</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0.738494426413</v>
-      </c>
-      <c r="G10" s="19">
-        <v>1.8879448410399999</v>
-      </c>
-      <c r="H10" s="19">
-        <v>8.9097639931200003</v>
-      </c>
-      <c r="I10" s="19">
-        <v>42.0477826933</v>
-      </c>
-      <c r="J10" s="19">
-        <v>107.49423634599999</v>
-      </c>
-      <c r="K10" s="19">
-        <v>191.30532601799999</v>
-      </c>
-      <c r="L10" s="19">
-        <v>395.10662592699998</v>
-      </c>
-      <c r="M10" s="19">
-        <v>1157.63825372</v>
-      </c>
-      <c r="N10" s="19">
-        <v>2941.0542997399998</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="19">
-        <v>8.9097639931214694</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>19.2771315086096</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="S10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="19">
-        <v>49.999999999999901</v>
-      </c>
-      <c r="U10" s="19">
-        <v>6.25E-2</v>
-      </c>
-      <c r="V10" s="19">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="W10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="X10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="19">
-        <v>100</v>
-      </c>
-      <c r="Z10" s="19">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AA10" s="19">
-        <v>0.78333333333333299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="Y12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>199.9999999999998</v>
+      </c>
+      <c r="AA12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AB12">
+        <v>0.95000000000000018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>2.4868732201647589E-3</v>
+      </c>
+      <c r="C13">
+        <v>6.6007746874196483E-3</v>
+      </c>
+      <c r="D13">
+        <v>2.112828933916432E-2</v>
+      </c>
+      <c r="E13">
+        <v>4.747737819884372E-2</v>
+      </c>
+      <c r="F13">
+        <v>9.0851469431712212E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.2731453960101814</v>
+      </c>
+      <c r="H13">
+        <v>1.6606582989322101</v>
+      </c>
+      <c r="I13">
+        <v>8.6243867414093067</v>
+      </c>
+      <c r="J13">
+        <v>23.03546653228533</v>
+      </c>
+      <c r="K13">
+        <v>44.586936353930597</v>
+      </c>
+      <c r="L13">
+        <v>93.760393894439019</v>
+      </c>
+      <c r="M13">
+        <v>278.91038254430441</v>
+      </c>
+      <c r="N13">
+        <v>541.36520592942577</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13">
+        <v>38.866400322487522</v>
+      </c>
+      <c r="Q13">
+        <v>428.66965963130087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>1.7827477261271609</v>
+      </c>
+      <c r="C14">
+        <v>2.9335181224845792</v>
+      </c>
+      <c r="D14">
+        <v>5.3133839821275659</v>
+      </c>
+      <c r="E14">
+        <v>7.9804658970225244</v>
+      </c>
+      <c r="F14">
+        <v>10.997228789162209</v>
+      </c>
+      <c r="G14">
+        <v>18.385903149379239</v>
+      </c>
+      <c r="H14">
+        <v>41.790496360820647</v>
+      </c>
+      <c r="I14">
+        <v>116.1179265133861</v>
+      </c>
+      <c r="J14">
+        <v>262.37259505415068</v>
+      </c>
+      <c r="K14">
+        <v>467.89839185794841</v>
+      </c>
+      <c r="L14">
+        <v>1007.414845729432</v>
+      </c>
+      <c r="M14">
+        <v>3063.726704964788</v>
+      </c>
+      <c r="N14">
+        <v>8794.6869880257364</v>
+      </c>
+      <c r="O14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14">
+        <v>59472.691471560742</v>
+      </c>
+      <c r="Q14">
+        <v>506554.83044667862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19">
-        <v>5.8533586729699998</v>
-      </c>
-      <c r="C11" s="19">
-        <v>4.9994224737600002</v>
-      </c>
-      <c r="D11" s="19">
-        <v>4.1863765015299998</v>
-      </c>
-      <c r="E11" s="19">
-        <v>3.7269888262399999</v>
-      </c>
-      <c r="F11" s="19">
-        <v>3.4071319254999999</v>
-      </c>
-      <c r="G11" s="19">
-        <v>2.9635628274600001</v>
-      </c>
-      <c r="H11" s="19">
-        <v>2.4182513858600001</v>
-      </c>
-      <c r="I11" s="19">
-        <v>2.0917032095099999</v>
-      </c>
-      <c r="J11" s="19">
-        <v>2.0031177122499999</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1.9914395514500001</v>
-      </c>
-      <c r="L11" s="19">
-        <v>2.0234675363700001</v>
-      </c>
-      <c r="M11" s="19">
-        <v>2.16433855438</v>
-      </c>
-      <c r="N11" s="19">
-        <v>2.37282427866</v>
-      </c>
-      <c r="O11" s="19" t="s">
+      <c r="B15">
+        <v>3.122050056079845</v>
+      </c>
+      <c r="C15">
+        <v>4.9749037240411971</v>
+      </c>
+      <c r="D15">
+        <v>8.7492855360709907</v>
+      </c>
+      <c r="E15">
+        <v>12.805157548611071</v>
+      </c>
+      <c r="F15">
+        <v>16.995085735697231</v>
+      </c>
+      <c r="G15">
+        <v>26.970855272529999</v>
+      </c>
+      <c r="H15">
+        <v>54.73337203809956</v>
+      </c>
+      <c r="I15">
+        <v>134.35429662469889</v>
+      </c>
+      <c r="J15">
+        <v>295.36565860445529</v>
+      </c>
+      <c r="K15">
+        <v>532.69979727172699</v>
+      </c>
+      <c r="L15">
+        <v>1132.5154633028831</v>
+      </c>
+      <c r="M15">
+        <v>3631.707917933596</v>
+      </c>
+      <c r="N15">
+        <v>10709.24409221415</v>
+      </c>
+      <c r="O15" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="T11" s="19">
-        <v>59.999999999999901</v>
-      </c>
-      <c r="U11" s="19">
-        <v>6.25E-2</v>
-      </c>
-      <c r="V11" s="19">
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="W11" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="19">
-        <v>149.99999999999901</v>
-      </c>
-      <c r="Z11" s="19">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AA11" s="19">
-        <v>0.86666666666666603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="19">
-        <v>7.6373329069699995E-4</v>
-      </c>
-      <c r="C12" s="19">
-        <v>9.5434212331199999E-4</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1.2210793095400001E-3</v>
-      </c>
-      <c r="E12" s="19">
-        <v>1.4433027658199999E-3</v>
-      </c>
-      <c r="F12" s="19">
-        <v>1.6543306962899999E-3</v>
-      </c>
-      <c r="G12" s="19">
-        <v>1.6564947667999999E-3</v>
-      </c>
-      <c r="H12" s="19">
-        <v>1.45637397172E-3</v>
-      </c>
-      <c r="I12" s="19">
-        <v>1.2799406163E-3</v>
-      </c>
-      <c r="J12" s="19">
-        <v>1.1988468317299999E-3</v>
-      </c>
-      <c r="K12" s="19">
-        <v>1.19338104632E-3</v>
-      </c>
-      <c r="L12" s="19">
-        <v>1.16290159471E-3</v>
-      </c>
-      <c r="M12" s="19">
-        <v>1.0670460831999999E-3</v>
-      </c>
-      <c r="N12" s="19">
-        <v>9.7658975005900008E-4</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="S12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="T12" s="19">
-        <v>74.999999999999901</v>
-      </c>
-      <c r="U12" s="19">
-        <v>6.25E-2</v>
-      </c>
-      <c r="V12" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="W12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="19">
-        <v>199.99999999999901</v>
-      </c>
-      <c r="Z12" s="19">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AA12" s="19">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="19">
-        <v>2.0923049597900002E-3</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2.5633167508500002E-3</v>
-      </c>
-      <c r="D13" s="19">
-        <v>3.2058559667099999E-3</v>
-      </c>
-      <c r="E13" s="19">
-        <v>3.73146533717E-3</v>
-      </c>
-      <c r="F13" s="19">
-        <v>4.2250971682299999E-3</v>
-      </c>
-      <c r="G13" s="19">
-        <v>4.2085380522200004E-3</v>
-      </c>
-      <c r="H13" s="19">
-        <v>3.7187600957300001E-3</v>
-      </c>
-      <c r="I13" s="19">
-        <v>3.2848925712500002E-3</v>
-      </c>
-      <c r="J13" s="19">
-        <v>3.0862390620800002E-3</v>
-      </c>
-      <c r="K13" s="19">
-        <v>3.0779712128699999E-3</v>
-      </c>
-      <c r="L13" s="19">
-        <v>3.0064886576999998E-3</v>
-      </c>
-      <c r="M13" s="19">
-        <v>2.7683956141699999E-3</v>
-      </c>
-      <c r="N13" s="19">
-        <v>2.5414570455099999E-3</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="19">
-        <v>1.0735580561700001E-2</v>
-      </c>
-      <c r="C14" s="19">
-        <v>1.30504921412E-2</v>
-      </c>
-      <c r="D14" s="19">
-        <v>1.5786920367099999E-2</v>
-      </c>
-      <c r="E14" s="19">
-        <v>1.8320509215800002E-2</v>
-      </c>
-      <c r="F14" s="19">
-        <v>1.99203816441E-2</v>
-      </c>
-      <c r="G14" s="19">
-        <v>1.9482387188400001E-2</v>
-      </c>
-      <c r="H14" s="19">
-        <v>2.12287514606E-2</v>
-      </c>
-      <c r="I14" s="19">
-        <v>2.3323313904700001E-2</v>
-      </c>
-      <c r="J14" s="19">
-        <v>2.4036781292100001E-2</v>
-      </c>
-      <c r="K14" s="19">
-        <v>2.46570875329E-2</v>
-      </c>
-      <c r="L14" s="19">
-        <v>2.42504931552E-2</v>
-      </c>
-      <c r="M14" s="19">
-        <v>2.25585702954E-2</v>
-      </c>
-      <c r="N14" s="19">
-        <v>2.0447086013899999E-2</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="19">
-        <v>2.2379472830999999E-2</v>
-      </c>
-      <c r="C15" s="19">
-        <v>2.7077441247200001E-2</v>
-      </c>
-      <c r="D15" s="19">
-        <v>3.2612826402E-2</v>
-      </c>
-      <c r="E15" s="19">
-        <v>3.7868805914100002E-2</v>
-      </c>
-      <c r="F15" s="19">
-        <v>4.1142965067300002E-2</v>
-      </c>
-      <c r="G15" s="19">
-        <v>4.0655147033900003E-2</v>
-      </c>
-      <c r="H15" s="19">
-        <v>4.4840968715500001E-2</v>
-      </c>
-      <c r="I15" s="19">
-        <v>4.8674083131400002E-2</v>
-      </c>
-      <c r="J15" s="19">
-        <v>5.0188374608100002E-2</v>
-      </c>
-      <c r="K15" s="19">
-        <v>5.0924764423099997E-2</v>
-      </c>
-      <c r="L15" s="19">
-        <v>5.0085017114199999E-2</v>
-      </c>
-      <c r="M15" s="19">
-        <v>4.6590655789500002E-2</v>
-      </c>
-      <c r="N15" s="19">
-        <v>4.2670074625300002E-2</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
+      <c r="P15">
+        <v>73297.398161282952</v>
+      </c>
+      <c r="Q15">
+        <v>630845.80235635594</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
@@ -1694,35 +1657,35 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="W23" s="9"/>
       <c r="X23" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y23" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB23" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
@@ -1733,7 +1696,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -1746,7 +1709,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S24" s="9" t="s">
         <v>3</v>
@@ -1796,7 +1759,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S25" s="9" t="s">
         <v>3</v>
@@ -1846,7 +1809,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S26" s="9" t="s">
         <v>3</v>
@@ -1896,7 +1859,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S27" s="9" t="s">
         <v>3</v>
@@ -1912,7 +1875,7 @@
       </c>
       <c r="W27" s="9"/>
       <c r="X27" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y27" s="9" t="s">
         <v>3</v>
@@ -1946,7 +1909,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S28" s="9" t="s">
         <v>3</v>
@@ -1962,7 +1925,7 @@
       </c>
       <c r="W28" s="9"/>
       <c r="X28" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y28" s="9" t="s">
         <v>3</v>
@@ -1996,7 +1959,7 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S29" s="9" t="s">
         <v>3</v>
@@ -2012,7 +1975,7 @@
       </c>
       <c r="W29" s="9"/>
       <c r="X29" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y29" s="9" t="s">
         <v>3</v>
@@ -2046,7 +2009,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S30" s="9" t="s">
         <v>3</v>
@@ -2062,7 +2025,7 @@
       </c>
       <c r="W30" s="9"/>
       <c r="X30" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y30" s="9" t="s">
         <v>3</v>
@@ -2112,7 +2075,7 @@
       </c>
       <c r="W31" s="9"/>
       <c r="X31" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y31" s="9" t="s">
         <v>3</v>
@@ -2129,7 +2092,7 @@
     </row>
     <row r="32" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2164,7 +2127,7 @@
       </c>
       <c r="W32" s="9"/>
       <c r="X32" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y32" s="9" t="s">
         <v>3</v>
@@ -2181,7 +2144,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33" s="13">
         <v>2.5000000000000001E-2</v>
@@ -2224,10 +2187,10 @@
       </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R33" s="9" t="s">
         <v>4</v>
@@ -2246,7 +2209,7 @@
       </c>
       <c r="W33" s="9"/>
       <c r="X33" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y33" s="9" t="s">
         <v>3</v>
@@ -2263,7 +2226,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" s="9">
         <v>2.6991645281838068E-2</v>
@@ -2305,7 +2268,7 @@
         <v>2941.0542997369303</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P34" s="9">
         <v>8.9097639931214765</v>
@@ -2327,7 +2290,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" s="9">
         <v>6.2093038853916589</v>
@@ -2369,7 +2332,7 @@
         <v>2.3067522674205918</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P35" s="9">
         <v>2.5440928012023107</v>
@@ -2391,7 +2354,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" s="9">
         <v>1.45078246827938E-3</v>
@@ -2433,7 +2396,7 @@
         <v>418.23705051557027</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P36" s="9">
         <v>1.214038898852984</v>
@@ -2455,7 +2418,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B37" s="9">
         <v>1.7302057244969482E-3</v>
@@ -2497,7 +2460,7 @@
         <v>583.33201790381145</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P37" s="9">
         <v>1.7121641567169053</v>
@@ -2519,7 +2482,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B38" s="9">
         <v>1.2100349288855059</v>
@@ -2561,7 +2524,7 @@
         <v>8813.0440557209276</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P38" s="9">
         <v>34.69475642644111</v>
@@ -2583,7 +2546,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B39" s="16">
         <v>1.9253112017586216</v>
@@ -2625,7 +2588,7 @@
         <v>10043.558009372415</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P39" s="16">
         <v>40.227499581607262</v>
@@ -2646,11 +2609,6 @@
       <c r="AB39" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>